--- a/Kenntnisse.xlsx
+++ b/Kenntnisse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9ADA77-C018-334F-8352-49A94E4FA241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB77C51E-B371-1D45-8CB3-FF1F20570626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66680" yWindow="7960" windowWidth="16300" windowHeight="11300" xr2:uid="{E26E6F84-7083-42AC-AEEE-29A8D6C8B816}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{E26E6F84-7083-42AC-AEEE-29A8D6C8B816}"/>
   </bookViews>
   <sheets>
     <sheet name="Kenntnisse" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -519,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>

--- a/Kenntnisse.xlsx
+++ b/Kenntnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB77C51E-B371-1D45-8CB3-FF1F20570626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B0B046-CE8F-2C49-9C13-096AF8E2F75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{E26E6F84-7083-42AC-AEEE-29A8D6C8B816}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{E26E6F84-7083-42AC-AEEE-29A8D6C8B816}"/>
   </bookViews>
   <sheets>
     <sheet name="Kenntnisse" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>

--- a/Kenntnisse.xlsx
+++ b/Kenntnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B0B046-CE8F-2C49-9C13-096AF8E2F75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C06E93-71AD-A847-8299-99FDF47CEC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{E26E6F84-7083-42AC-AEEE-29A8D6C8B816}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Kenntnis</t>
   </si>
@@ -71,12 +71,6 @@
     <t>B2</t>
   </si>
   <si>
-    <t>Französisch</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>qualitative Beurteilung</t>
   </si>
   <si>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>SAC / SAP</t>
+  </si>
+  <si>
+    <t>Power Auomate</t>
+  </si>
+  <si>
+    <t>Power Apps</t>
   </si>
 </sst>
 </file>
@@ -444,14 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF47C59-50E2-4B68-9953-21AC579C7FF5}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -461,13 +462,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -478,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -489,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -500,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -511,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -522,7 +523,7 @@
         <v>2.5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -533,60 +534,68 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Kenntnisse.xlsx
+++ b/Kenntnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C06E93-71AD-A847-8299-99FDF47CEC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67768582-3782-D541-A496-E8B4A37C024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{E26E6F84-7083-42AC-AEEE-29A8D6C8B816}"/>
   </bookViews>
@@ -89,10 +89,10 @@
     <t>SAC / SAP</t>
   </si>
   <si>
-    <t>Power Auomate</t>
-  </si>
-  <si>
     <t>Power Apps</t>
+  </si>
+  <si>
+    <t>Power Automate</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>4</v>
